--- a/ResultadosLuna/loio_mse_results.xlsx
+++ b/ResultadosLuna/loio_mse_results.xlsx
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.61920266881636</v>
+        <v>0.70407786073899</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0350798590589791</v>
+        <v>0.0548035619939158</v>
       </c>
     </row>
     <row r="4">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.88052672817549</v>
+        <v>2.97911977060175</v>
       </c>
     </row>
     <row r="5">
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23643834156827</v>
+        <v>0.270347664275388</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0105872293580892</v>
+        <v>0.0258834252459316</v>
       </c>
     </row>
     <row r="7">
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.91492977960499</v>
+        <v>1.81110681072827</v>
       </c>
     </row>
     <row r="8">
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.056794640708395</v>
+        <v>0.0516840680483948</v>
       </c>
     </row>
     <row r="9">
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1.47815901168347</v>
+        <v>1.43717883140433</v>
       </c>
     </row>
     <row r="10">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.114051363764287</v>
+        <v>0.0989006886602981</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>2.08224805284197</v>
+        <v>1.97149655343502</v>
       </c>
     </row>
     <row r="12">
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1.42837990969087</v>
+        <v>1.21312402759746</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1.90064295654428</v>
+        <v>1.88810600406152</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>3.20951536044642</v>
+        <v>3.3832477881639</v>
       </c>
     </row>
     <row r="15">
@@ -844,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.86750447656035</v>
+        <v>0.819690893597734</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>2.26148406735266</v>
+        <v>2.1980387098307</v>
       </c>
     </row>
     <row r="17">
@@ -860,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1.09859254788624</v>
+        <v>1.09744812064912</v>
       </c>
     </row>
     <row r="18">
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.208832228637866</v>
+        <v>0.228081808263319</v>
       </c>
     </row>
     <row r="19">
@@ -876,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>14.2968950778361</v>
+        <v>13.7720731342522</v>
       </c>
     </row>
     <row r="20">
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.138493923488622</v>
+        <v>0.160664485015372</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.634538656473058</v>
+        <v>0.643974643779113</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.103217630006308</v>
+        <v>0.0653725222608279</v>
       </c>
     </row>
     <row r="23">
@@ -908,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126933737185227</v>
+        <v>0.123638652774083</v>
       </c>
     </row>
     <row r="24">
@@ -916,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>10.6263728920644</v>
+        <v>10.2082413550787</v>
       </c>
     </row>
     <row r="25">
@@ -924,7 +924,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>4.21675335421187</v>
+        <v>3.9417212396498</v>
       </c>
     </row>
     <row r="26">
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0255404856798642</v>
+        <v>0.0276872742399872</v>
       </c>
     </row>
     <row r="27">
@@ -940,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>5.21421701013731</v>
+        <v>5.0953440634187</v>
       </c>
     </row>
     <row r="28">
@@ -948,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585803246241953</v>
+        <v>0.438195356514919</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>1.88194480223568</v>
+        <v>1.7113955155636</v>
       </c>
     </row>
     <row r="30">
@@ -964,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591784256577021</v>
+        <v>0.650232374672326</v>
       </c>
     </row>
     <row r="31">
@@ -972,7 +972,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0208201572252505</v>
+        <v>0.260707163771493</v>
       </c>
     </row>
     <row r="32">
@@ -980,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.129778495712317</v>
+        <v>0.0747640023716853</v>
       </c>
     </row>
     <row r="33">
@@ -988,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.122533537669383</v>
+        <v>0.064589655110497</v>
       </c>
     </row>
     <row r="34">
@@ -996,7 +996,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>2.97290910291349</v>
+        <v>3.21093110680525</v>
       </c>
     </row>
     <row r="35">
@@ -1004,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.81796084981418</v>
+        <v>0.774602237130209</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.71878329813821</v>
+        <v>0.672798825987034</v>
       </c>
     </row>
     <row r="37">
@@ -1020,7 +1020,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.68178251354397</v>
+        <v>0.617223301277396</v>
       </c>
     </row>
     <row r="38">
@@ -1028,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.296633962816673</v>
+        <v>0.343576896536738</v>
       </c>
     </row>
     <row r="39">
@@ -1036,7 +1036,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.123781399825436</v>
+        <v>0.0988419284664624</v>
       </c>
     </row>
     <row r="40">
@@ -1044,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.120804284891281</v>
+        <v>0.134797821354429</v>
       </c>
     </row>
     <row r="41">
@@ -1052,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.26495805381774</v>
+        <v>0.29132237466126</v>
       </c>
     </row>
     <row r="42">
@@ -1060,7 +1060,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>9.90491944740786</v>
+        <v>9.86440193772741</v>
       </c>
     </row>
     <row r="43">
@@ -1068,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.207264908292483</v>
+        <v>0.138619155658683</v>
       </c>
     </row>
     <row r="44">
@@ -1076,7 +1076,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.484306943313304</v>
+        <v>0.506594327255645</v>
       </c>
     </row>
     <row r="45">
@@ -1084,7 +1084,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.375970372821018</v>
+        <v>0.354025920959256</v>
       </c>
     </row>
     <row r="46">
@@ -1092,7 +1092,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0374155995455895</v>
+        <v>0.0711042623341825</v>
       </c>
     </row>
     <row r="47">
@@ -1100,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.753394177425545</v>
+        <v>0.816026767596802</v>
       </c>
     </row>
     <row r="48">
@@ -1108,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0608870688966903</v>
+        <v>0.039158240401769</v>
       </c>
     </row>
     <row r="49">
@@ -1116,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4143896239236</v>
+        <v>1.5315850689044</v>
       </c>
     </row>
     <row r="50">
@@ -1124,7 +1124,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0654375249888452</v>
+        <v>0.013650264423317</v>
       </c>
     </row>
     <row r="51">
@@ -1132,7 +1132,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>1.39590729226123</v>
+        <v>1.10691228621821</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1.86672439476592</v>
+        <v>1.98487486740324</v>
       </c>
     </row>
     <row r="53">
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0.54062266606042</v>
+        <v>0.572731934767874</v>
       </c>
     </row>
     <row r="54">
@@ -1156,7 +1156,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0.897846842795409</v>
+        <v>1.02316919575</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1164,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>1.43391794373959</v>
+        <v>1.644746456904</v>
       </c>
     </row>
     <row r="56">
@@ -1172,7 +1172,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>1.7642599120005</v>
+        <v>1.8094086365784</v>
       </c>
     </row>
     <row r="57">
@@ -1180,7 +1180,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0.47796646038776</v>
+        <v>0.380743171964538</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0969129614284121</v>
+        <v>0.0593878663199646</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>4.20509637363935</v>
+        <v>4.06677526382584</v>
       </c>
     </row>
     <row r="60">
@@ -1204,7 +1204,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>1.13779203765</v>
+        <v>1.02012829742575</v>
       </c>
     </row>
     <row r="61">
@@ -1212,7 +1212,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>2.46425529823018</v>
+        <v>2.36308918374554</v>
       </c>
     </row>
     <row r="62">
@@ -1220,7 +1220,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0445240944551461</v>
+        <v>0.0363768212229457</v>
       </c>
     </row>
     <row r="63">
@@ -1228,7 +1228,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266469821907199</v>
+        <v>0.260012215827832</v>
       </c>
     </row>
     <row r="64">
@@ -1236,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0.801894097310194</v>
+        <v>0.137387917745913</v>
       </c>
     </row>
     <row r="65">
@@ -1244,7 +1244,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.739695231779041</v>
+        <v>0.702072981782492</v>
       </c>
     </row>
     <row r="66">
@@ -1252,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>3.33192510092398</v>
+        <v>3.55441805002431</v>
       </c>
     </row>
     <row r="67">
@@ -1260,7 +1260,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>7.85890350687944</v>
+        <v>8.17730278933716</v>
       </c>
     </row>
     <row r="68">
@@ -1268,7 +1268,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0.196512348212181</v>
+        <v>0.206108191076833</v>
       </c>
     </row>
     <row r="69">
@@ -1276,7 +1276,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0.354392582332976</v>
+        <v>0.521968908394629</v>
       </c>
     </row>
     <row r="70">
@@ -1284,7 +1284,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358717206290378</v>
+        <v>0.315388615837653</v>
       </c>
     </row>
     <row r="71">
@@ -1292,7 +1292,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>1.08100670586063</v>
+        <v>1.21958786980526</v>
       </c>
     </row>
     <row r="72">
@@ -1300,7 +1300,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0.798728660973973</v>
+        <v>1.03437440382043</v>
       </c>
     </row>
     <row r="73">
@@ -1308,7 +1308,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0.153994600898537</v>
+        <v>0.137034341685747</v>
       </c>
     </row>
     <row r="74">
@@ -1316,7 +1316,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>6.36364101223458</v>
+        <v>6.1097534378829</v>
       </c>
     </row>
     <row r="75">
@@ -1324,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>6.89518240255577</v>
+        <v>7.29814346652906</v>
       </c>
     </row>
     <row r="76">
@@ -1332,7 +1332,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00416769223188234</v>
+        <v>0.0030762681673735</v>
       </c>
     </row>
     <row r="77">
@@ -1340,7 +1340,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>2.39406178723466</v>
+        <v>2.19255623489079</v>
       </c>
     </row>
     <row r="78">
@@ -1348,7 +1348,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0.75294188298467</v>
+        <v>0.420791042408278</v>
       </c>
     </row>
     <row r="79">
@@ -1356,7 +1356,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0272496986954003</v>
+        <v>0.0222031222618622</v>
       </c>
     </row>
     <row r="80">
@@ -1364,7 +1364,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0.248224303588418</v>
+        <v>0.0375574322300205</v>
       </c>
     </row>
     <row r="81">
@@ -1372,7 +1372,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>1.03430827303003</v>
+        <v>0.949922245841844</v>
       </c>
     </row>
     <row r="82">
@@ -1380,7 +1380,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05116912925923</v>
+        <v>1.00630953842921</v>
       </c>
     </row>
     <row r="83">
@@ -1388,7 +1388,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>0.479207978203135</v>
+        <v>0.629510324528561</v>
       </c>
     </row>
     <row r="84">
@@ -1396,7 +1396,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03801573493188</v>
+        <v>1.05467975514263</v>
       </c>
     </row>
     <row r="85">
@@ -1404,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20669712010155</v>
+        <v>0.153706983387492</v>
       </c>
     </row>
     <row r="86">
@@ -1412,7 +1412,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>1.82215189273685</v>
+        <v>1.69167375852436</v>
       </c>
     </row>
     <row r="87">
@@ -1420,7 +1420,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00869462101667742</v>
+        <v>0.00683553092148555</v>
       </c>
     </row>
     <row r="88">
@@ -1428,7 +1428,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0.315946445017676</v>
+        <v>0.377780510058461</v>
       </c>
     </row>
     <row r="89">
@@ -1436,7 +1436,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>2.53176946264714</v>
+        <v>2.484313979195</v>
       </c>
     </row>
     <row r="90">
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01441745858728</v>
+        <v>1.08428027488441</v>
       </c>
     </row>
     <row r="91">
@@ -1452,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>2.08326424106955</v>
+        <v>1.97064061646523</v>
       </c>
     </row>
     <row r="92">
@@ -1460,7 +1460,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1762002701673</v>
+        <v>1.11351997915374</v>
       </c>
     </row>
     <row r="93">
@@ -1468,7 +1468,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>1.00762284456662</v>
+        <v>1.07877299890844</v>
       </c>
     </row>
     <row r="94">
@@ -1476,7 +1476,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>2.72691607184529</v>
+        <v>2.59059663310551</v>
       </c>
     </row>
     <row r="95">
@@ -1484,7 +1484,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>1.29117026628011</v>
+        <v>1.28648514199607</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>1.45862721312503</v>
+        <v>1.53321394040202</v>
       </c>
     </row>
     <row r="97">
@@ -1500,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>4.2012498015833</v>
+        <v>3.96450783702067</v>
       </c>
     </row>
     <row r="98">
@@ -1508,7 +1508,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>5.46045707252312</v>
+        <v>5.35385891395565</v>
       </c>
     </row>
     <row r="99">
@@ -1516,7 +1516,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>2.62110171749244</v>
+        <v>2.57458468836714</v>
       </c>
     </row>
     <row r="100">
@@ -1524,7 +1524,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>3.75592557020515</v>
+        <v>4.696697865759</v>
       </c>
     </row>
     <row r="101">
@@ -1532,7 +1532,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>2.9583495716637</v>
+        <v>2.88765603668882</v>
       </c>
     </row>
     <row r="102">
@@ -1540,7 +1540,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>0.333329376965263</v>
+        <v>0.446642600756921</v>
       </c>
     </row>
     <row r="103">
@@ -1548,7 +1548,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>24.6355883798838</v>
+        <v>24.775200728038</v>
       </c>
     </row>
     <row r="104">
@@ -1556,7 +1556,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>0.736976082654546</v>
+        <v>0.773826339611902</v>
       </c>
     </row>
     <row r="105">
@@ -1564,7 +1564,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>5.4548512660612</v>
+        <v>5.55179788934782</v>
       </c>
     </row>
     <row r="106">
@@ -1572,7 +1572,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>0.469109925035743</v>
+        <v>0.453718286809018</v>
       </c>
     </row>
     <row r="107">
@@ -1580,7 +1580,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4739473355374</v>
+        <v>1.42911039196314</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>4.56579046971191</v>
+        <v>9.06097578486476</v>
       </c>
     </row>
     <row r="109">
@@ -1596,7 +1596,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>1.14333697396293</v>
+        <v>0.953618352921304</v>
       </c>
     </row>
     <row r="110">
@@ -1604,7 +1604,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>0.594677972973061</v>
+        <v>0.665467390942287</v>
       </c>
     </row>
     <row r="111">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>0.458801501757942</v>
+        <v>0.568579162139751</v>
       </c>
     </row>
     <row r="112">
@@ -1620,7 +1620,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>1.62453055722194</v>
+        <v>1.55793048059032</v>
       </c>
     </row>
     <row r="113">
@@ -1628,7 +1628,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>1.01313654020582</v>
+        <v>1.0901145368176</v>
       </c>
     </row>
     <row r="114">
@@ -1636,7 +1636,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17014410740507</v>
+        <v>0.92847757431598</v>
       </c>
     </row>
     <row r="115">
@@ -1644,7 +1644,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>0.700840880563225</v>
+        <v>1.07580104352365</v>
       </c>
     </row>
     <row r="116">
@@ -1652,7 +1652,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0612364462467564</v>
+        <v>0.052631977764932</v>
       </c>
     </row>
     <row r="117">
@@ -1660,7 +1660,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>0.369601540112394</v>
+        <v>0.360188852588105</v>
       </c>
     </row>
     <row r="118">
@@ -1668,7 +1668,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0467684579749808</v>
+        <v>0.0501279187512685</v>
       </c>
     </row>
     <row r="119">
@@ -1676,7 +1676,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00544241330604091</v>
+        <v>0.00681329820144433</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>0.465040752389002</v>
+        <v>0.37580033453623</v>
       </c>
     </row>
     <row r="121">
@@ -1692,7 +1692,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>0.490855881619677</v>
+        <v>0.408177737914038</v>
       </c>
     </row>
     <row r="122">
@@ -1700,7 +1700,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>0.918051795332724</v>
+        <v>1.08623093661785</v>
       </c>
     </row>
     <row r="123">
@@ -1708,7 +1708,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0620941726014557</v>
+        <v>0.0606456211849658</v>
       </c>
     </row>
     <row r="124">
@@ -1716,7 +1716,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>0.855988862182139</v>
+        <v>1.35662128346383</v>
       </c>
     </row>
     <row r="125">
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>0.450384502879196</v>
+        <v>0.525822815244544</v>
       </c>
     </row>
     <row r="126">
@@ -1732,7 +1732,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>2.99833089353653</v>
+        <v>3.4690781587995</v>
       </c>
     </row>
     <row r="127">
@@ -1740,7 +1740,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>0.635981907256091</v>
+        <v>0.445700403043463</v>
       </c>
     </row>
   </sheetData>
